--- a/Coursework Part 1/results rename.xlsx
+++ b/Coursework Part 1/results rename.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Beej\Documents\Work\C&amp;PS\Coursework\Concurrent-And-Parallel-Systems-CW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40183743\Documents\Concurrent-And-Parallel-Systems-CW\Coursework Part 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Seq. Results" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,10 @@
     <sheet name="OpenMP Dynamic" sheetId="10" r:id="rId3"/>
     <sheet name="Manual Threading" sheetId="11" r:id="rId4"/>
     <sheet name="Par. Comparisons" sheetId="9" r:id="rId5"/>
-    <sheet name="Comaprison 1" sheetId="7" r:id="rId6"/>
-    <sheet name="Comparison 2" sheetId="8" r:id="rId7"/>
-    <sheet name="Comparison 3" sheetId="12" r:id="rId8"/>
-    <sheet name="Comparison 4" sheetId="13" r:id="rId9"/>
+    <sheet name="Chart1" sheetId="7" r:id="rId6"/>
+    <sheet name="Chart2" sheetId="8" r:id="rId7"/>
+    <sheet name="Chart3" sheetId="12" r:id="rId8"/>
+    <sheet name="Chart4" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -896,15 +896,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -924,6 +915,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5892,48 +5892,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z103"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="G1" s="39" t="s">
+      <c r="B1" s="46"/>
+      <c r="G1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="R1" s="39" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="R1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
       <c r="W1" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>4</v>
       </c>
@@ -6010,25 +6010,25 @@
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
       <c r="Q3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="37" t="s">
+      <c r="R3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
       <c r="V3" s="11"/>
       <c r="W3" s="7">
         <v>1</v>
@@ -6043,7 +6043,7 @@
         <v>3002631</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>8</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>3001927</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>16</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>47465</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>32</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>48176</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>64</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>190442</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>128</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>191293</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>256</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>189282</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>512</v>
       </c>
@@ -6459,7 +6459,7 @@
       <c r="Y10" s="22"/>
       <c r="Z10" s="22"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="7">
@@ -6509,7 +6509,7 @@
       <c r="Y11" s="11"/>
       <c r="Z11" s="11"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E12" s="1"/>
       <c r="F12" s="7">
         <v>9</v>
@@ -6558,11 +6558,11 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="21"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="39"/>
+      <c r="B13" s="46"/>
       <c r="E13" s="1"/>
       <c r="F13" s="7">
         <v>10</v>
@@ -6611,7 +6611,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="21"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>47312</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>128</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>47275</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>256</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>47226</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>512</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>47260</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>1024</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>47553</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E19" s="1"/>
       <c r="F19" s="7">
         <v>16</v>
@@ -6915,7 +6915,7 @@
         <v>47356</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>47303</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>A15^2</f>
         <v>16384</v>
@@ -7012,7 +7012,7 @@
         <v>47255</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ref="A22:A24" si="0">A16^2</f>
         <v>65536</v>
@@ -7065,7 +7065,7 @@
         <v>47308</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>262144</v>
@@ -7114,7 +7114,7 @@
         <v>47751</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>1048576</v>
@@ -7163,7 +7163,7 @@
         <v>48053</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E25" s="1"/>
       <c r="F25" s="7">
         <v>22</v>
@@ -7208,7 +7208,7 @@
         <v>47531</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E26" s="1"/>
       <c r="F26" s="7">
         <v>23</v>
@@ -7253,7 +7253,7 @@
         <v>47674</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E27" s="1"/>
       <c r="F27" s="7">
         <v>24</v>
@@ -7298,7 +7298,7 @@
         <v>47219</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E28" s="1"/>
       <c r="F28" s="7">
         <v>25</v>
@@ -7343,7 +7343,7 @@
         <v>47242</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E29" s="1"/>
       <c r="F29" s="7">
         <v>26</v>
@@ -7388,7 +7388,7 @@
         <v>47567</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E30" s="1"/>
       <c r="F30" s="7">
         <v>27</v>
@@ -7433,7 +7433,7 @@
         <v>47724</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E31" s="1"/>
       <c r="F31" s="7">
         <v>28</v>
@@ -7478,7 +7478,7 @@
         <v>48229</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E32" s="1"/>
       <c r="F32" s="7">
         <v>29</v>
@@ -7523,7 +7523,7 @@
         <v>48258</v>
       </c>
     </row>
-    <row r="33" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E33" s="1"/>
       <c r="F33" s="7">
         <v>30</v>
@@ -7568,7 +7568,7 @@
         <v>48450</v>
       </c>
     </row>
-    <row r="34" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E34" s="1"/>
       <c r="F34" s="7">
         <v>31</v>
@@ -7613,7 +7613,7 @@
         <v>47473</v>
       </c>
     </row>
-    <row r="35" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E35" s="1"/>
       <c r="F35" s="7">
         <v>32</v>
@@ -7658,7 +7658,7 @@
         <v>47598</v>
       </c>
     </row>
-    <row r="36" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E36" s="1"/>
       <c r="F36" s="7">
         <v>33</v>
@@ -7703,7 +7703,7 @@
         <v>47484</v>
       </c>
     </row>
-    <row r="37" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E37" s="1"/>
       <c r="F37" s="7">
         <v>34</v>
@@ -7748,7 +7748,7 @@
         <v>48072</v>
       </c>
     </row>
-    <row r="38" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E38" s="1"/>
       <c r="F38" s="7">
         <v>35</v>
@@ -7793,7 +7793,7 @@
         <v>47923</v>
       </c>
     </row>
-    <row r="39" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E39" s="1"/>
       <c r="F39" s="7">
         <v>36</v>
@@ -7838,7 +7838,7 @@
         <v>47829</v>
       </c>
     </row>
-    <row r="40" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E40" s="1"/>
       <c r="F40" s="7">
         <v>37</v>
@@ -7883,7 +7883,7 @@
         <v>48392</v>
       </c>
     </row>
-    <row r="41" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E41" s="1"/>
       <c r="F41" s="7">
         <v>38</v>
@@ -7928,7 +7928,7 @@
         <v>47935</v>
       </c>
     </row>
-    <row r="42" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E42" s="1"/>
       <c r="F42" s="7">
         <v>39</v>
@@ -7973,7 +7973,7 @@
         <v>48443</v>
       </c>
     </row>
-    <row r="43" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E43" s="1"/>
       <c r="F43" s="7">
         <v>40</v>
@@ -8018,7 +8018,7 @@
         <v>47404</v>
       </c>
     </row>
-    <row r="44" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E44" s="1"/>
       <c r="F44" s="7">
         <v>41</v>
@@ -8063,7 +8063,7 @@
         <v>47731</v>
       </c>
     </row>
-    <row r="45" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E45" s="1"/>
       <c r="F45" s="7">
         <v>42</v>
@@ -8108,7 +8108,7 @@
         <v>48272</v>
       </c>
     </row>
-    <row r="46" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E46" s="1"/>
       <c r="F46" s="7">
         <v>43</v>
@@ -8153,7 +8153,7 @@
         <v>47408</v>
       </c>
     </row>
-    <row r="47" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E47" s="1"/>
       <c r="F47" s="7">
         <v>44</v>
@@ -8198,7 +8198,7 @@
         <v>47818</v>
       </c>
     </row>
-    <row r="48" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E48" s="1"/>
       <c r="F48" s="7">
         <v>45</v>
@@ -8243,7 +8243,7 @@
         <v>48075</v>
       </c>
     </row>
-    <row r="49" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E49" s="1"/>
       <c r="F49" s="7">
         <v>46</v>
@@ -8288,7 +8288,7 @@
         <v>47949</v>
       </c>
     </row>
-    <row r="50" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E50" s="1"/>
       <c r="F50" s="7">
         <v>47</v>
@@ -8333,7 +8333,7 @@
         <v>48394</v>
       </c>
     </row>
-    <row r="51" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E51" s="1"/>
       <c r="F51" s="7">
         <v>48</v>
@@ -8378,7 +8378,7 @@
         <v>47668</v>
       </c>
     </row>
-    <row r="52" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E52" s="1"/>
       <c r="F52" s="7">
         <v>49</v>
@@ -8423,7 +8423,7 @@
         <v>47545</v>
       </c>
     </row>
-    <row r="53" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E53" s="1"/>
       <c r="F53" s="7">
         <v>50</v>
@@ -8468,7 +8468,7 @@
         <v>47806</v>
       </c>
     </row>
-    <row r="54" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E54" s="1"/>
       <c r="F54" s="7">
         <v>51</v>
@@ -8513,7 +8513,7 @@
         <v>47524</v>
       </c>
     </row>
-    <row r="55" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E55" s="1"/>
       <c r="F55" s="7">
         <v>52</v>
@@ -8558,7 +8558,7 @@
         <v>48476</v>
       </c>
     </row>
-    <row r="56" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E56" s="1"/>
       <c r="F56" s="7">
         <v>53</v>
@@ -8603,7 +8603,7 @@
         <v>47374</v>
       </c>
     </row>
-    <row r="57" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E57" s="1"/>
       <c r="F57" s="7">
         <v>54</v>
@@ -8648,7 +8648,7 @@
         <v>47937</v>
       </c>
     </row>
-    <row r="58" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E58" s="1"/>
       <c r="F58" s="7">
         <v>55</v>
@@ -8693,7 +8693,7 @@
         <v>48027</v>
       </c>
     </row>
-    <row r="59" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E59" s="1"/>
       <c r="F59" s="7">
         <v>56</v>
@@ -8738,7 +8738,7 @@
         <v>47850</v>
       </c>
     </row>
-    <row r="60" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E60" s="1"/>
       <c r="F60" s="7">
         <v>57</v>
@@ -8783,7 +8783,7 @@
         <v>48381</v>
       </c>
     </row>
-    <row r="61" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E61" s="1"/>
       <c r="F61" s="7">
         <v>58</v>
@@ -8828,7 +8828,7 @@
         <v>48301</v>
       </c>
     </row>
-    <row r="62" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E62" s="1"/>
       <c r="F62" s="7">
         <v>59</v>
@@ -8873,7 +8873,7 @@
         <v>47508</v>
       </c>
     </row>
-    <row r="63" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E63" s="1"/>
       <c r="F63" s="7">
         <v>60</v>
@@ -8918,7 +8918,7 @@
         <v>48207</v>
       </c>
     </row>
-    <row r="64" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E64" s="1"/>
       <c r="F64" s="7">
         <v>61</v>
@@ -8963,7 +8963,7 @@
         <v>47641</v>
       </c>
     </row>
-    <row r="65" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E65" s="1"/>
       <c r="F65" s="7">
         <v>62</v>
@@ -9008,7 +9008,7 @@
         <v>48195</v>
       </c>
     </row>
-    <row r="66" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E66" s="1"/>
       <c r="F66" s="7">
         <v>63</v>
@@ -9053,7 +9053,7 @@
         <v>48249</v>
       </c>
     </row>
-    <row r="67" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E67" s="1"/>
       <c r="F67" s="7">
         <v>64</v>
@@ -9098,7 +9098,7 @@
         <v>47353</v>
       </c>
     </row>
-    <row r="68" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E68" s="1"/>
       <c r="F68" s="7">
         <v>65</v>
@@ -9143,7 +9143,7 @@
         <v>47671</v>
       </c>
     </row>
-    <row r="69" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E69" s="1"/>
       <c r="F69" s="7">
         <v>66</v>
@@ -9188,7 +9188,7 @@
         <v>47264</v>
       </c>
     </row>
-    <row r="70" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E70" s="1"/>
       <c r="F70" s="7">
         <v>67</v>
@@ -9233,7 +9233,7 @@
         <v>47631</v>
       </c>
     </row>
-    <row r="71" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E71" s="1"/>
       <c r="F71" s="7">
         <v>68</v>
@@ -9278,7 +9278,7 @@
         <v>48478</v>
       </c>
     </row>
-    <row r="72" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E72" s="1"/>
       <c r="F72" s="7">
         <v>69</v>
@@ -9323,7 +9323,7 @@
         <v>48404</v>
       </c>
     </row>
-    <row r="73" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E73" s="1"/>
       <c r="F73" s="7">
         <v>70</v>
@@ -9368,7 +9368,7 @@
         <v>47389</v>
       </c>
     </row>
-    <row r="74" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E74" s="1"/>
       <c r="F74" s="7">
         <v>71</v>
@@ -9413,7 +9413,7 @@
         <v>48081</v>
       </c>
     </row>
-    <row r="75" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E75" s="1"/>
       <c r="F75" s="7">
         <v>72</v>
@@ -9458,7 +9458,7 @@
         <v>47604</v>
       </c>
     </row>
-    <row r="76" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E76" s="1"/>
       <c r="F76" s="7">
         <v>73</v>
@@ -9503,7 +9503,7 @@
         <v>47781</v>
       </c>
     </row>
-    <row r="77" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E77" s="1"/>
       <c r="F77" s="7">
         <v>74</v>
@@ -9548,7 +9548,7 @@
         <v>47262</v>
       </c>
     </row>
-    <row r="78" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E78" s="1"/>
       <c r="F78" s="7">
         <v>75</v>
@@ -9593,7 +9593,7 @@
         <v>48146</v>
       </c>
     </row>
-    <row r="79" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E79" s="1"/>
       <c r="F79" s="7">
         <v>76</v>
@@ -9638,7 +9638,7 @@
         <v>47933</v>
       </c>
     </row>
-    <row r="80" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E80" s="1"/>
       <c r="F80" s="7">
         <v>77</v>
@@ -9683,7 +9683,7 @@
         <v>48160</v>
       </c>
     </row>
-    <row r="81" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E81" s="1"/>
       <c r="F81" s="7">
         <v>78</v>
@@ -9728,7 +9728,7 @@
         <v>47269</v>
       </c>
     </row>
-    <row r="82" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E82" s="1"/>
       <c r="F82" s="7">
         <v>79</v>
@@ -9773,7 +9773,7 @@
         <v>48190</v>
       </c>
     </row>
-    <row r="83" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E83" s="1"/>
       <c r="F83" s="7">
         <v>80</v>
@@ -9818,7 +9818,7 @@
         <v>47709</v>
       </c>
     </row>
-    <row r="84" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E84" s="1"/>
       <c r="F84" s="7">
         <v>81</v>
@@ -9863,7 +9863,7 @@
         <v>47595</v>
       </c>
     </row>
-    <row r="85" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E85" s="1"/>
       <c r="F85" s="7">
         <v>82</v>
@@ -9908,7 +9908,7 @@
         <v>48090</v>
       </c>
     </row>
-    <row r="86" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E86" s="1"/>
       <c r="F86" s="7">
         <v>83</v>
@@ -9953,7 +9953,7 @@
         <v>47868</v>
       </c>
     </row>
-    <row r="87" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E87" s="1"/>
       <c r="F87" s="7">
         <v>84</v>
@@ -9998,7 +9998,7 @@
         <v>47292</v>
       </c>
     </row>
-    <row r="88" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E88" s="1"/>
       <c r="F88" s="7">
         <v>85</v>
@@ -10043,7 +10043,7 @@
         <v>47600</v>
       </c>
     </row>
-    <row r="89" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E89" s="1"/>
       <c r="F89" s="7">
         <v>86</v>
@@ -10088,7 +10088,7 @@
         <v>48474</v>
       </c>
     </row>
-    <row r="90" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E90" s="1"/>
       <c r="F90" s="7">
         <v>87</v>
@@ -10133,7 +10133,7 @@
         <v>47595</v>
       </c>
     </row>
-    <row r="91" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E91" s="1"/>
       <c r="F91" s="7">
         <v>88</v>
@@ -10178,7 +10178,7 @@
         <v>48026</v>
       </c>
     </row>
-    <row r="92" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E92" s="1"/>
       <c r="F92" s="7">
         <v>89</v>
@@ -10223,7 +10223,7 @@
         <v>48330</v>
       </c>
     </row>
-    <row r="93" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E93" s="1"/>
       <c r="F93" s="7">
         <v>90</v>
@@ -10268,7 +10268,7 @@
         <v>48474</v>
       </c>
     </row>
-    <row r="94" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E94" s="1"/>
       <c r="F94" s="7">
         <v>91</v>
@@ -10313,7 +10313,7 @@
         <v>48072</v>
       </c>
     </row>
-    <row r="95" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E95" s="1"/>
       <c r="F95" s="7">
         <v>92</v>
@@ -10358,7 +10358,7 @@
         <v>48427</v>
       </c>
     </row>
-    <row r="96" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E96" s="1"/>
       <c r="F96" s="7">
         <v>93</v>
@@ -10403,7 +10403,7 @@
         <v>48187</v>
       </c>
     </row>
-    <row r="97" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E97" s="1"/>
       <c r="F97" s="7">
         <v>94</v>
@@ -10448,7 +10448,7 @@
         <v>48456</v>
       </c>
     </row>
-    <row r="98" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E98" s="1"/>
       <c r="F98" s="7">
         <v>95</v>
@@ -10493,7 +10493,7 @@
         <v>47612</v>
       </c>
     </row>
-    <row r="99" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E99" s="1"/>
       <c r="F99" s="7">
         <v>96</v>
@@ -10538,7 +10538,7 @@
         <v>48014</v>
       </c>
     </row>
-    <row r="100" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E100" s="1"/>
       <c r="F100" s="7">
         <v>97</v>
@@ -10583,7 +10583,7 @@
         <v>48008</v>
       </c>
     </row>
-    <row r="101" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E101" s="1"/>
       <c r="F101" s="7">
         <v>98</v>
@@ -10628,7 +10628,7 @@
         <v>48075</v>
       </c>
     </row>
-    <row r="102" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E102" s="1"/>
       <c r="F102" s="7">
         <v>99</v>
@@ -10673,7 +10673,7 @@
         <v>48422</v>
       </c>
     </row>
-    <row r="103" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E103" s="1"/>
       <c r="F103" s="7">
         <v>100</v>
@@ -10736,48 +10736,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z103"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="G1" s="39" t="s">
+      <c r="B1" s="46"/>
+      <c r="G1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="R1" s="39" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="R1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
       <c r="W1" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>4</v>
       </c>
@@ -10854,25 +10854,25 @@
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
       <c r="Q3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="37" t="s">
+      <c r="R3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
       <c r="W3" s="7">
         <v>1</v>
       </c>
@@ -10886,7 +10886,7 @@
         <v>709916</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>8</v>
       </c>
@@ -10950,7 +10950,7 @@
         <v>708573</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>16</v>
       </c>
@@ -11002,7 +11002,7 @@
         <v>11059</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>32</v>
       </c>
@@ -11054,7 +11054,7 @@
         <v>11040</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>64</v>
       </c>
@@ -11106,7 +11106,7 @@
         <v>11111</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>128</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>11053</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>256</v>
       </c>
@@ -11210,7 +11210,7 @@
         <v>11144</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>512</v>
       </c>
@@ -11262,7 +11262,7 @@
         <v>11033</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="7">
@@ -11308,7 +11308,7 @@
         <v>11043</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E12" s="1"/>
       <c r="F12" s="7">
         <v>9</v>
@@ -11353,11 +11353,11 @@
         <v>11124</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="39"/>
+      <c r="B13" s="46"/>
       <c r="E13" s="1"/>
       <c r="F13" s="7">
         <v>10</v>
@@ -11402,7 +11402,7 @@
         <v>11078</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>11128</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>128</v>
       </c>
@@ -11505,7 +11505,7 @@
         <v>11053</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>256</v>
       </c>
@@ -11557,7 +11557,7 @@
         <v>11141</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>512</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>11072</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>1024</v>
       </c>
@@ -11661,7 +11661,7 @@
         <v>11142</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E19" s="1"/>
       <c r="F19" s="7">
         <v>16</v>
@@ -11706,7 +11706,7 @@
         <v>11062</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>24</v>
       </c>
@@ -11757,7 +11757,7 @@
         <v>11098</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E21" s="1"/>
       <c r="F21" s="7">
         <v>18</v>
@@ -11802,12 +11802,12 @@
         <v>11053</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="39" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
       <c r="E22" s="1"/>
       <c r="F22" s="7">
         <v>19</v>
@@ -11852,7 +11852,7 @@
         <v>11111</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>1</v>
       </c>
@@ -11906,15 +11906,15 @@
         <v>11058</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>4</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B24" s="38">
         <f>'Seq. Results'!B3/'OpenMP Static'!B3</f>
         <v>4.0750814941484537</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="39">
         <f>B24/B20</f>
         <v>1.0187703735371134</v>
       </c>
@@ -11962,15 +11962,15 @@
         <v>11066</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>8</v>
       </c>
-      <c r="B25" s="41">
+      <c r="B25" s="38">
         <f>'Seq. Results'!B4/'OpenMP Static'!B4</f>
         <v>4.1191280566280568</v>
       </c>
-      <c r="C25" s="43">
+      <c r="C25" s="40">
         <f>B25/B20</f>
         <v>1.0297820141570142</v>
       </c>
@@ -12018,15 +12018,15 @@
         <v>11093</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>16</v>
       </c>
-      <c r="B26" s="41">
+      <c r="B26" s="38">
         <f>'Seq. Results'!B5/'OpenMP Static'!B5</f>
         <v>4.2025957972805932</v>
       </c>
-      <c r="C26" s="43">
+      <c r="C26" s="40">
         <f>B26/B20</f>
         <v>1.0506489493201483</v>
       </c>
@@ -12074,15 +12074,15 @@
         <v>11065</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>32</v>
       </c>
-      <c r="B27" s="41">
+      <c r="B27" s="38">
         <f>'Seq. Results'!B6/'OpenMP Static'!B6</f>
         <v>4.3582268286704711</v>
       </c>
-      <c r="C27" s="43">
+      <c r="C27" s="40">
         <f>B27/B20</f>
         <v>1.0895567071676178</v>
       </c>
@@ -12130,15 +12130,15 @@
         <v>11218</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>64</v>
       </c>
-      <c r="B28" s="41">
+      <c r="B28" s="38">
         <f>'Seq. Results'!B7/'OpenMP Static'!B7</f>
         <v>4.4610101802492474</v>
       </c>
-      <c r="C28" s="43">
+      <c r="C28" s="40">
         <f>B28/B20</f>
         <v>1.1152525450623119</v>
       </c>
@@ -12186,15 +12186,15 @@
         <v>11151</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>128</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="38">
         <f>'Seq. Results'!B8/'OpenMP Static'!B8</f>
         <v>4.3909204262680435</v>
       </c>
-      <c r="C29" s="43">
+      <c r="C29" s="40">
         <f>B29/B20</f>
         <v>1.0977301065670109</v>
       </c>
@@ -12242,15 +12242,15 @@
         <v>11074</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>256</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="38">
         <f>'Seq. Results'!B9/'OpenMP Static'!B9</f>
         <v>4.3285418654617702</v>
       </c>
-      <c r="C30" s="43">
+      <c r="C30" s="40">
         <f>B30/B20</f>
         <v>1.0821354663654426</v>
       </c>
@@ -12298,15 +12298,15 @@
         <v>11081</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>512</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31" s="38">
         <f>'Seq. Results'!B10/'OpenMP Static'!B10</f>
         <v>4.302667827213436</v>
       </c>
-      <c r="C31" s="43">
+      <c r="C31" s="40">
         <f>B31/B20</f>
         <v>1.075666956803359</v>
       </c>
@@ -12354,7 +12354,7 @@
         <v>11146</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E32" s="1"/>
       <c r="F32" s="7">
         <v>29</v>
@@ -12399,12 +12399,12 @@
         <v>11053</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A33" s="39" t="s">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
       <c r="E33" s="1"/>
       <c r="F33" s="7">
         <v>30</v>
@@ -12449,7 +12449,7 @@
         <v>11101</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>0</v>
       </c>
@@ -12503,15 +12503,15 @@
         <v>11036</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>128</v>
       </c>
-      <c r="B35" s="45">
+      <c r="B35" s="42">
         <f>'Seq. Results'!B15/'OpenMP Static'!B15</f>
         <v>3.9862201570261182</v>
       </c>
-      <c r="C35" s="41">
+      <c r="C35" s="38">
         <f>B35/B20</f>
         <v>0.99655503925652955</v>
       </c>
@@ -12559,15 +12559,15 @@
         <v>11060</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>256</v>
       </c>
-      <c r="B36" s="46">
+      <c r="B36" s="43">
         <f>'Seq. Results'!B16/'OpenMP Static'!B16</f>
         <v>4.1328000658580759</v>
       </c>
-      <c r="C36" s="41">
+      <c r="C36" s="38">
         <f>B36/B20</f>
         <v>1.033200016464519</v>
       </c>
@@ -12615,15 +12615,15 @@
         <v>11124</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>512</v>
       </c>
-      <c r="B37" s="46">
+      <c r="B37" s="43">
         <f>'Seq. Results'!B17/'OpenMP Static'!B17</f>
         <v>4.2167345721951701</v>
       </c>
-      <c r="C37" s="41">
+      <c r="C37" s="38">
         <f>B37/B20</f>
         <v>1.0541836430487925</v>
       </c>
@@ -12671,15 +12671,15 @@
         <v>11216</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>1024</v>
       </c>
-      <c r="B38" s="46">
+      <c r="B38" s="43">
         <f>'Seq. Results'!B18/'OpenMP Static'!B18</f>
         <v>4.3117982336797374</v>
       </c>
-      <c r="C38" s="41">
+      <c r="C38" s="38">
         <f>B38/B20</f>
         <v>1.0779495584199343</v>
       </c>
@@ -12727,7 +12727,7 @@
         <v>11120</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E39" s="1"/>
       <c r="F39" s="7">
         <v>36</v>
@@ -12772,7 +12772,7 @@
         <v>11069</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E40" s="1"/>
       <c r="F40" s="7">
         <v>37</v>
@@ -12817,7 +12817,7 @@
         <v>11099</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E41" s="1"/>
       <c r="F41" s="7">
         <v>38</v>
@@ -12862,7 +12862,7 @@
         <v>11113</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E42" s="1"/>
       <c r="F42" s="7">
         <v>39</v>
@@ -12907,7 +12907,7 @@
         <v>11061</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E43" s="1"/>
       <c r="F43" s="7">
         <v>40</v>
@@ -12952,7 +12952,7 @@
         <v>11047</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E44" s="1"/>
       <c r="F44" s="7">
         <v>41</v>
@@ -12997,7 +12997,7 @@
         <v>11048</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E45" s="1"/>
       <c r="F45" s="7">
         <v>42</v>
@@ -13042,7 +13042,7 @@
         <v>11036</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E46" s="1"/>
       <c r="F46" s="7">
         <v>43</v>
@@ -13087,7 +13087,7 @@
         <v>11088</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E47" s="1"/>
       <c r="F47" s="7">
         <v>44</v>
@@ -13132,7 +13132,7 @@
         <v>11086</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E48" s="1"/>
       <c r="F48" s="7">
         <v>45</v>
@@ -13177,7 +13177,7 @@
         <v>11107</v>
       </c>
     </row>
-    <row r="49" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E49" s="1"/>
       <c r="F49" s="7">
         <v>46</v>
@@ -13222,7 +13222,7 @@
         <v>11148</v>
       </c>
     </row>
-    <row r="50" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E50" s="1"/>
       <c r="F50" s="7">
         <v>47</v>
@@ -13267,7 +13267,7 @@
         <v>11097</v>
       </c>
     </row>
-    <row r="51" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E51" s="1"/>
       <c r="F51" s="7">
         <v>48</v>
@@ -13312,7 +13312,7 @@
         <v>11051</v>
       </c>
     </row>
-    <row r="52" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E52" s="1"/>
       <c r="F52" s="7">
         <v>49</v>
@@ -13357,7 +13357,7 @@
         <v>11033</v>
       </c>
     </row>
-    <row r="53" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E53" s="1"/>
       <c r="F53" s="7">
         <v>50</v>
@@ -13402,7 +13402,7 @@
         <v>11029</v>
       </c>
     </row>
-    <row r="54" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E54" s="1"/>
       <c r="F54" s="7">
         <v>51</v>
@@ -13447,7 +13447,7 @@
         <v>11143</v>
       </c>
     </row>
-    <row r="55" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E55" s="1"/>
       <c r="F55" s="7">
         <v>52</v>
@@ -13492,7 +13492,7 @@
         <v>11107</v>
       </c>
     </row>
-    <row r="56" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E56" s="1"/>
       <c r="F56" s="7">
         <v>53</v>
@@ -13537,7 +13537,7 @@
         <v>11069</v>
       </c>
     </row>
-    <row r="57" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E57" s="1"/>
       <c r="F57" s="7">
         <v>54</v>
@@ -13582,7 +13582,7 @@
         <v>11138</v>
       </c>
     </row>
-    <row r="58" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E58" s="1"/>
       <c r="F58" s="7">
         <v>55</v>
@@ -13627,7 +13627,7 @@
         <v>11178</v>
       </c>
     </row>
-    <row r="59" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E59" s="1"/>
       <c r="F59" s="7">
         <v>56</v>
@@ -13672,7 +13672,7 @@
         <v>11025</v>
       </c>
     </row>
-    <row r="60" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E60" s="1"/>
       <c r="F60" s="7">
         <v>57</v>
@@ -13717,7 +13717,7 @@
         <v>11075</v>
       </c>
     </row>
-    <row r="61" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E61" s="1"/>
       <c r="F61" s="7">
         <v>58</v>
@@ -13762,7 +13762,7 @@
         <v>11131</v>
       </c>
     </row>
-    <row r="62" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E62" s="1"/>
       <c r="F62" s="7">
         <v>59</v>
@@ -13807,7 +13807,7 @@
         <v>11103</v>
       </c>
     </row>
-    <row r="63" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E63" s="1"/>
       <c r="F63" s="7">
         <v>60</v>
@@ -13852,7 +13852,7 @@
         <v>11066</v>
       </c>
     </row>
-    <row r="64" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E64" s="1"/>
       <c r="F64" s="7">
         <v>61</v>
@@ -13897,7 +13897,7 @@
         <v>11045</v>
       </c>
     </row>
-    <row r="65" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E65" s="1"/>
       <c r="F65" s="7">
         <v>62</v>
@@ -13942,7 +13942,7 @@
         <v>11104</v>
       </c>
     </row>
-    <row r="66" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E66" s="1"/>
       <c r="F66" s="7">
         <v>63</v>
@@ -13987,7 +13987,7 @@
         <v>11031</v>
       </c>
     </row>
-    <row r="67" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E67" s="1"/>
       <c r="F67" s="7">
         <v>64</v>
@@ -14032,7 +14032,7 @@
         <v>11033</v>
       </c>
     </row>
-    <row r="68" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E68" s="1"/>
       <c r="F68" s="7">
         <v>65</v>
@@ -14077,7 +14077,7 @@
         <v>11129</v>
       </c>
     </row>
-    <row r="69" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E69" s="1"/>
       <c r="F69" s="7">
         <v>66</v>
@@ -14122,7 +14122,7 @@
         <v>11058</v>
       </c>
     </row>
-    <row r="70" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E70" s="1"/>
       <c r="F70" s="7">
         <v>67</v>
@@ -14167,7 +14167,7 @@
         <v>11108</v>
       </c>
     </row>
-    <row r="71" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E71" s="1"/>
       <c r="F71" s="7">
         <v>68</v>
@@ -14212,7 +14212,7 @@
         <v>11090</v>
       </c>
     </row>
-    <row r="72" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E72" s="1"/>
       <c r="F72" s="7">
         <v>69</v>
@@ -14257,7 +14257,7 @@
         <v>11254</v>
       </c>
     </row>
-    <row r="73" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E73" s="1"/>
       <c r="F73" s="7">
         <v>70</v>
@@ -14302,7 +14302,7 @@
         <v>11048</v>
       </c>
     </row>
-    <row r="74" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E74" s="1"/>
       <c r="F74" s="7">
         <v>71</v>
@@ -14347,7 +14347,7 @@
         <v>11183</v>
       </c>
     </row>
-    <row r="75" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E75" s="1"/>
       <c r="F75" s="7">
         <v>72</v>
@@ -14392,7 +14392,7 @@
         <v>11115</v>
       </c>
     </row>
-    <row r="76" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E76" s="1"/>
       <c r="F76" s="7">
         <v>73</v>
@@ -14437,7 +14437,7 @@
         <v>11050</v>
       </c>
     </row>
-    <row r="77" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E77" s="1"/>
       <c r="F77" s="7">
         <v>74</v>
@@ -14482,7 +14482,7 @@
         <v>11101</v>
       </c>
     </row>
-    <row r="78" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E78" s="1"/>
       <c r="F78" s="7">
         <v>75</v>
@@ -14527,7 +14527,7 @@
         <v>11078</v>
       </c>
     </row>
-    <row r="79" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E79" s="1"/>
       <c r="F79" s="7">
         <v>76</v>
@@ -14572,7 +14572,7 @@
         <v>11098</v>
       </c>
     </row>
-    <row r="80" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E80" s="1"/>
       <c r="F80" s="7">
         <v>77</v>
@@ -14617,7 +14617,7 @@
         <v>11104</v>
       </c>
     </row>
-    <row r="81" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E81" s="1"/>
       <c r="F81" s="7">
         <v>78</v>
@@ -14662,7 +14662,7 @@
         <v>11041</v>
       </c>
     </row>
-    <row r="82" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E82" s="1"/>
       <c r="F82" s="7">
         <v>79</v>
@@ -14707,7 +14707,7 @@
         <v>11090</v>
       </c>
     </row>
-    <row r="83" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E83" s="1"/>
       <c r="F83" s="7">
         <v>80</v>
@@ -14752,7 +14752,7 @@
         <v>11099</v>
       </c>
     </row>
-    <row r="84" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E84" s="1"/>
       <c r="F84" s="7">
         <v>81</v>
@@ -14797,7 +14797,7 @@
         <v>11079</v>
       </c>
     </row>
-    <row r="85" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E85" s="1"/>
       <c r="F85" s="7">
         <v>82</v>
@@ -14842,7 +14842,7 @@
         <v>11093</v>
       </c>
     </row>
-    <row r="86" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E86" s="1"/>
       <c r="F86" s="7">
         <v>83</v>
@@ -14887,7 +14887,7 @@
         <v>11076</v>
       </c>
     </row>
-    <row r="87" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E87" s="1"/>
       <c r="F87" s="7">
         <v>84</v>
@@ -14932,7 +14932,7 @@
         <v>11167</v>
       </c>
     </row>
-    <row r="88" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E88" s="1"/>
       <c r="F88" s="7">
         <v>85</v>
@@ -14977,7 +14977,7 @@
         <v>11107</v>
       </c>
     </row>
-    <row r="89" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E89" s="1"/>
       <c r="F89" s="7">
         <v>86</v>
@@ -15022,7 +15022,7 @@
         <v>11103</v>
       </c>
     </row>
-    <row r="90" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E90" s="1"/>
       <c r="F90" s="7">
         <v>87</v>
@@ -15067,7 +15067,7 @@
         <v>11093</v>
       </c>
     </row>
-    <row r="91" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E91" s="1"/>
       <c r="F91" s="7">
         <v>88</v>
@@ -15112,7 +15112,7 @@
         <v>11145</v>
       </c>
     </row>
-    <row r="92" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E92" s="1"/>
       <c r="F92" s="7">
         <v>89</v>
@@ -15157,7 +15157,7 @@
         <v>11201</v>
       </c>
     </row>
-    <row r="93" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E93" s="1"/>
       <c r="F93" s="7">
         <v>90</v>
@@ -15202,7 +15202,7 @@
         <v>11126</v>
       </c>
     </row>
-    <row r="94" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E94" s="1"/>
       <c r="F94" s="7">
         <v>91</v>
@@ -15247,7 +15247,7 @@
         <v>11077</v>
       </c>
     </row>
-    <row r="95" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E95" s="1"/>
       <c r="F95" s="7">
         <v>92</v>
@@ -15292,7 +15292,7 @@
         <v>11096</v>
       </c>
     </row>
-    <row r="96" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E96" s="1"/>
       <c r="F96" s="7">
         <v>93</v>
@@ -15337,7 +15337,7 @@
         <v>11264</v>
       </c>
     </row>
-    <row r="97" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E97" s="1"/>
       <c r="F97" s="7">
         <v>94</v>
@@ -15382,7 +15382,7 @@
         <v>11196</v>
       </c>
     </row>
-    <row r="98" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E98" s="1"/>
       <c r="F98" s="7">
         <v>95</v>
@@ -15427,7 +15427,7 @@
         <v>11120</v>
       </c>
     </row>
-    <row r="99" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E99" s="1"/>
       <c r="F99" s="7">
         <v>96</v>
@@ -15472,7 +15472,7 @@
         <v>11076</v>
       </c>
     </row>
-    <row r="100" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E100" s="1"/>
       <c r="F100" s="7">
         <v>97</v>
@@ -15517,7 +15517,7 @@
         <v>11059</v>
       </c>
     </row>
-    <row r="101" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E101" s="1"/>
       <c r="F101" s="7">
         <v>98</v>
@@ -15562,7 +15562,7 @@
         <v>11089</v>
       </c>
     </row>
-    <row r="102" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E102" s="1"/>
       <c r="F102" s="7">
         <v>99</v>
@@ -15607,7 +15607,7 @@
         <v>11122</v>
       </c>
     </row>
-    <row r="103" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E103" s="1"/>
       <c r="F103" s="7">
         <v>100</v>
@@ -15676,44 +15676,44 @@
       <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="G1" s="39" t="s">
+      <c r="B1" s="46"/>
+      <c r="G1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="R1" s="39" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="R1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
       <c r="W1" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
@@ -15778,7 +15778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>4</v>
       </c>
@@ -15790,25 +15790,25 @@
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
       <c r="Q3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="37" t="s">
+      <c r="R3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
       <c r="W3" s="7">
         <v>1</v>
       </c>
@@ -15822,7 +15822,7 @@
         <v>659067</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>8</v>
       </c>
@@ -15886,7 +15886,7 @@
         <v>658709</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>16</v>
       </c>
@@ -15938,7 +15938,7 @@
         <v>10282</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>32</v>
       </c>
@@ -15990,7 +15990,7 @@
         <v>10278</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>64</v>
       </c>
@@ -16042,7 +16042,7 @@
         <v>10259</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>128</v>
       </c>
@@ -16094,7 +16094,7 @@
         <v>10269</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>256</v>
       </c>
@@ -16146,7 +16146,7 @@
         <v>10285</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>512</v>
       </c>
@@ -16198,7 +16198,7 @@
         <v>10271</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="7">
@@ -16244,7 +16244,7 @@
         <v>10311</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E12" s="1"/>
       <c r="F12" s="7">
         <v>9</v>
@@ -16289,11 +16289,11 @@
         <v>10277</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="39"/>
+      <c r="B13" s="46"/>
       <c r="E13" s="1"/>
       <c r="F13" s="7">
         <v>10</v>
@@ -16338,7 +16338,7 @@
         <v>10267</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
@@ -16389,7 +16389,7 @@
         <v>10295</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>128</v>
       </c>
@@ -16441,7 +16441,7 @@
         <v>10282</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>256</v>
       </c>
@@ -16493,7 +16493,7 @@
         <v>10283</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>512</v>
       </c>
@@ -16545,7 +16545,7 @@
         <v>10286</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>1024</v>
       </c>
@@ -16597,7 +16597,7 @@
         <v>10260</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E19" s="1"/>
       <c r="F19" s="7">
         <v>16</v>
@@ -16642,7 +16642,7 @@
         <v>10272</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>24</v>
       </c>
@@ -16693,7 +16693,7 @@
         <v>10263</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E21" s="1"/>
       <c r="F21" s="7">
         <v>18</v>
@@ -16738,12 +16738,12 @@
         <v>10253</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="39" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
       <c r="E22" s="1"/>
       <c r="F22" s="7">
         <v>19</v>
@@ -16788,7 +16788,7 @@
         <v>10264</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>1</v>
       </c>
@@ -16842,15 +16842,15 @@
         <v>10286</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>4</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B24" s="38">
         <f>'Seq. Results'!B3/'OpenMP Dynamic'!B3</f>
         <v>4.6503841931942924</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="39">
         <f>B24/B20</f>
         <v>1.1625960482985731</v>
       </c>
@@ -16898,15 +16898,15 @@
         <v>10304</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>8</v>
       </c>
-      <c r="B25" s="41">
+      <c r="B25" s="38">
         <f>'Seq. Results'!B4/'OpenMP Dynamic'!B4</f>
         <v>4.6732067895601386</v>
       </c>
-      <c r="C25" s="43">
+      <c r="C25" s="40">
         <f>B25/B20</f>
         <v>1.1683016973900346</v>
       </c>
@@ -16954,15 +16954,15 @@
         <v>10274</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>16</v>
       </c>
-      <c r="B26" s="41">
+      <c r="B26" s="38">
         <f>'Seq. Results'!B5/'OpenMP Dynamic'!B5</f>
         <v>4.6688384015624287</v>
       </c>
-      <c r="C26" s="43">
+      <c r="C26" s="40">
         <f>B26/B20</f>
         <v>1.1672096003906072</v>
       </c>
@@ -17010,15 +17010,15 @@
         <v>10282</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>32</v>
       </c>
-      <c r="B27" s="41">
+      <c r="B27" s="38">
         <f>'Seq. Results'!B6/'OpenMP Dynamic'!B6</f>
         <v>4.7553889767630224</v>
       </c>
-      <c r="C27" s="43">
+      <c r="C27" s="40">
         <f>B27/B20</f>
         <v>1.1888472441907556</v>
       </c>
@@ -17066,15 +17066,15 @@
         <v>10260</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>64</v>
       </c>
-      <c r="B28" s="41">
+      <c r="B28" s="38">
         <f>'Seq. Results'!B7/'OpenMP Dynamic'!B7</f>
         <v>4.7642672719102492</v>
       </c>
-      <c r="C28" s="43">
+      <c r="C28" s="40">
         <f>B28/B20</f>
         <v>1.1910668179775623</v>
       </c>
@@ -17122,15 +17122,15 @@
         <v>10275</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>128</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="38">
         <f>'Seq. Results'!B8/'OpenMP Dynamic'!B8</f>
         <v>4.7145422765164611</v>
       </c>
-      <c r="C29" s="43">
+      <c r="C29" s="40">
         <f>B29/B20</f>
         <v>1.1786355691291153</v>
       </c>
@@ -17172,15 +17172,15 @@
       </c>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>256</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="38">
         <f>'Seq. Results'!B9/'OpenMP Dynamic'!B9</f>
         <v>4.6483652757764116</v>
       </c>
-      <c r="C30" s="43">
+      <c r="C30" s="40">
         <f>B30/B20</f>
         <v>1.1620913189441029</v>
       </c>
@@ -17222,15 +17222,15 @@
       </c>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>512</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31" s="38">
         <f>'Seq. Results'!B10/'OpenMP Dynamic'!B10</f>
         <v>4.6163320849519645</v>
       </c>
-      <c r="C31" s="43">
+      <c r="C31" s="40">
         <f>B31/B20</f>
         <v>1.1540830212379911</v>
       </c>
@@ -17272,7 +17272,7 @@
       </c>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E32" s="1"/>
       <c r="F32" s="7">
         <v>29</v>
@@ -17311,12 +17311,12 @@
       </c>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A33" s="39" t="s">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
       <c r="E33" s="1"/>
       <c r="F33" s="7">
         <v>30</v>
@@ -17355,7 +17355,7 @@
       </c>
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>0</v>
       </c>
@@ -17403,15 +17403,15 @@
       </c>
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>128</v>
       </c>
-      <c r="B35" s="45">
+      <c r="B35" s="42">
         <f>'Seq. Results'!B15/'OpenMP Dynamic'!B15</f>
         <v>4.5011760448706353</v>
       </c>
-      <c r="C35" s="41">
+      <c r="C35" s="38">
         <f>B35/B20</f>
         <v>1.1252940112176588</v>
       </c>
@@ -17453,15 +17453,15 @@
       </c>
       <c r="U35" s="1"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>256</v>
       </c>
-      <c r="B36" s="46">
+      <c r="B36" s="43">
         <f>'Seq. Results'!B16/'OpenMP Dynamic'!B16</f>
         <v>4.6038332798385992</v>
       </c>
-      <c r="C36" s="41">
+      <c r="C36" s="38">
         <f>B36/B20</f>
         <v>1.1509583199596498</v>
       </c>
@@ -17503,15 +17503,15 @@
       </c>
       <c r="U36" s="1"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>512</v>
       </c>
-      <c r="B37" s="46">
+      <c r="B37" s="43">
         <f>'Seq. Results'!B17/'OpenMP Dynamic'!B17</f>
         <v>4.6000681420451901</v>
       </c>
-      <c r="C37" s="41">
+      <c r="C37" s="38">
         <f>B37/B20</f>
         <v>1.1500170355112975</v>
       </c>
@@ -17553,15 +17553,15 @@
       </c>
       <c r="U37" s="1"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>1024</v>
       </c>
-      <c r="B38" s="46">
+      <c r="B38" s="43">
         <f>'Seq. Results'!B18/'OpenMP Dynamic'!B18</f>
         <v>4.6539923288779619</v>
       </c>
-      <c r="C38" s="41">
+      <c r="C38" s="38">
         <f>B38/B20</f>
         <v>1.1634980822194905</v>
       </c>
@@ -17603,7 +17603,7 @@
       </c>
       <c r="U38" s="1"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E39" s="1"/>
       <c r="F39" s="7">
         <v>36</v>
@@ -17642,7 +17642,7 @@
       </c>
       <c r="U39" s="1"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E40" s="1"/>
       <c r="F40" s="7">
         <v>37</v>
@@ -17681,7 +17681,7 @@
       </c>
       <c r="U40" s="1"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E41" s="1"/>
       <c r="F41" s="7">
         <v>38</v>
@@ -17720,7 +17720,7 @@
       </c>
       <c r="U41" s="1"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E42" s="1"/>
       <c r="F42" s="7">
         <v>39</v>
@@ -17759,7 +17759,7 @@
       </c>
       <c r="U42" s="1"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E43" s="1"/>
       <c r="F43" s="7">
         <v>40</v>
@@ -17798,7 +17798,7 @@
       </c>
       <c r="U43" s="1"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E44" s="1"/>
       <c r="F44" s="7">
         <v>41</v>
@@ -17837,7 +17837,7 @@
       </c>
       <c r="U44" s="1"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E45" s="1"/>
       <c r="F45" s="7">
         <v>42</v>
@@ -17876,7 +17876,7 @@
       </c>
       <c r="U45" s="1"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E46" s="1"/>
       <c r="F46" s="7">
         <v>43</v>
@@ -17915,7 +17915,7 @@
       </c>
       <c r="U46" s="1"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E47" s="1"/>
       <c r="F47" s="7">
         <v>44</v>
@@ -17954,7 +17954,7 @@
       </c>
       <c r="U47" s="1"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E48" s="1"/>
       <c r="F48" s="7">
         <v>45</v>
@@ -17993,7 +17993,7 @@
       </c>
       <c r="U48" s="1"/>
     </row>
-    <row r="49" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E49" s="1"/>
       <c r="F49" s="7">
         <v>46</v>
@@ -18032,7 +18032,7 @@
       </c>
       <c r="U49" s="1"/>
     </row>
-    <row r="50" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E50" s="1"/>
       <c r="F50" s="7">
         <v>47</v>
@@ -18071,7 +18071,7 @@
       </c>
       <c r="U50" s="1"/>
     </row>
-    <row r="51" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E51" s="1"/>
       <c r="F51" s="7">
         <v>48</v>
@@ -18110,7 +18110,7 @@
       </c>
       <c r="U51" s="1"/>
     </row>
-    <row r="52" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E52" s="1"/>
       <c r="F52" s="7">
         <v>49</v>
@@ -18149,7 +18149,7 @@
       </c>
       <c r="U52" s="1"/>
     </row>
-    <row r="53" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E53" s="1"/>
       <c r="F53" s="7">
         <v>50</v>
@@ -18188,7 +18188,7 @@
       </c>
       <c r="U53" s="1"/>
     </row>
-    <row r="54" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E54" s="1"/>
       <c r="F54" s="7">
         <v>51</v>
@@ -18225,7 +18225,7 @@
       </c>
       <c r="U54" s="1"/>
     </row>
-    <row r="55" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E55" s="1"/>
       <c r="F55" s="7">
         <v>52</v>
@@ -18262,7 +18262,7 @@
       </c>
       <c r="U55" s="1"/>
     </row>
-    <row r="56" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E56" s="1"/>
       <c r="F56" s="7">
         <v>53</v>
@@ -18299,7 +18299,7 @@
       </c>
       <c r="U56" s="1"/>
     </row>
-    <row r="57" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E57" s="1"/>
       <c r="F57" s="7">
         <v>54</v>
@@ -18336,7 +18336,7 @@
       </c>
       <c r="U57" s="1"/>
     </row>
-    <row r="58" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E58" s="1"/>
       <c r="F58" s="7">
         <v>55</v>
@@ -18373,7 +18373,7 @@
       </c>
       <c r="U58" s="1"/>
     </row>
-    <row r="59" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E59" s="1"/>
       <c r="F59" s="7">
         <v>56</v>
@@ -18410,7 +18410,7 @@
       </c>
       <c r="U59" s="1"/>
     </row>
-    <row r="60" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E60" s="1"/>
       <c r="F60" s="7">
         <v>57</v>
@@ -18447,7 +18447,7 @@
       </c>
       <c r="U60" s="1"/>
     </row>
-    <row r="61" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E61" s="1"/>
       <c r="F61" s="7">
         <v>58</v>
@@ -18484,7 +18484,7 @@
       </c>
       <c r="U61" s="1"/>
     </row>
-    <row r="62" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E62" s="1"/>
       <c r="F62" s="7">
         <v>59</v>
@@ -18521,7 +18521,7 @@
       </c>
       <c r="U62" s="1"/>
     </row>
-    <row r="63" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E63" s="1"/>
       <c r="F63" s="7">
         <v>60</v>
@@ -18558,7 +18558,7 @@
       </c>
       <c r="U63" s="1"/>
     </row>
-    <row r="64" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E64" s="1"/>
       <c r="F64" s="7">
         <v>61</v>
@@ -18595,7 +18595,7 @@
       </c>
       <c r="U64" s="1"/>
     </row>
-    <row r="65" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E65" s="1"/>
       <c r="F65" s="7">
         <v>62</v>
@@ -18632,7 +18632,7 @@
       </c>
       <c r="U65" s="1"/>
     </row>
-    <row r="66" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E66" s="1"/>
       <c r="F66" s="7">
         <v>63</v>
@@ -18669,7 +18669,7 @@
       </c>
       <c r="U66" s="1"/>
     </row>
-    <row r="67" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E67" s="1"/>
       <c r="F67" s="7">
         <v>64</v>
@@ -18706,7 +18706,7 @@
       </c>
       <c r="U67" s="1"/>
     </row>
-    <row r="68" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E68" s="1"/>
       <c r="F68" s="7">
         <v>65</v>
@@ -18743,7 +18743,7 @@
       </c>
       <c r="U68" s="1"/>
     </row>
-    <row r="69" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E69" s="1"/>
       <c r="F69" s="7">
         <v>66</v>
@@ -18780,7 +18780,7 @@
       </c>
       <c r="U69" s="1"/>
     </row>
-    <row r="70" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E70" s="1"/>
       <c r="F70" s="7">
         <v>67</v>
@@ -18817,7 +18817,7 @@
       </c>
       <c r="U70" s="1"/>
     </row>
-    <row r="71" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E71" s="1"/>
       <c r="F71" s="7">
         <v>68</v>
@@ -18854,7 +18854,7 @@
       </c>
       <c r="U71" s="1"/>
     </row>
-    <row r="72" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E72" s="1"/>
       <c r="F72" s="7">
         <v>69</v>
@@ -18891,7 +18891,7 @@
       </c>
       <c r="U72" s="1"/>
     </row>
-    <row r="73" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E73" s="1"/>
       <c r="F73" s="7">
         <v>70</v>
@@ -18928,7 +18928,7 @@
       </c>
       <c r="U73" s="1"/>
     </row>
-    <row r="74" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E74" s="1"/>
       <c r="F74" s="7">
         <v>71</v>
@@ -18965,7 +18965,7 @@
       </c>
       <c r="U74" s="1"/>
     </row>
-    <row r="75" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E75" s="1"/>
       <c r="F75" s="7">
         <v>72</v>
@@ -19002,7 +19002,7 @@
       </c>
       <c r="U75" s="1"/>
     </row>
-    <row r="76" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E76" s="1"/>
       <c r="F76" s="7">
         <v>73</v>
@@ -19039,7 +19039,7 @@
       </c>
       <c r="U76" s="1"/>
     </row>
-    <row r="77" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E77" s="1"/>
       <c r="F77" s="7">
         <v>74</v>
@@ -19076,7 +19076,7 @@
       </c>
       <c r="U77" s="1"/>
     </row>
-    <row r="78" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E78" s="1"/>
       <c r="F78" s="7">
         <v>75</v>
@@ -19113,7 +19113,7 @@
       </c>
       <c r="U78" s="1"/>
     </row>
-    <row r="79" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E79" s="1"/>
       <c r="F79" s="7">
         <v>76</v>
@@ -19150,7 +19150,7 @@
       </c>
       <c r="U79" s="1"/>
     </row>
-    <row r="80" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E80" s="1"/>
       <c r="F80" s="7">
         <v>77</v>
@@ -19187,7 +19187,7 @@
       </c>
       <c r="U80" s="1"/>
     </row>
-    <row r="81" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E81" s="1"/>
       <c r="F81" s="7">
         <v>78</v>
@@ -19224,7 +19224,7 @@
       </c>
       <c r="U81" s="1"/>
     </row>
-    <row r="82" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E82" s="1"/>
       <c r="F82" s="7">
         <v>79</v>
@@ -19261,7 +19261,7 @@
       </c>
       <c r="U82" s="1"/>
     </row>
-    <row r="83" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E83" s="1"/>
       <c r="F83" s="7">
         <v>80</v>
@@ -19298,7 +19298,7 @@
       </c>
       <c r="U83" s="1"/>
     </row>
-    <row r="84" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E84" s="1"/>
       <c r="F84" s="7">
         <v>81</v>
@@ -19335,7 +19335,7 @@
       </c>
       <c r="U84" s="1"/>
     </row>
-    <row r="85" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E85" s="1"/>
       <c r="F85" s="7">
         <v>82</v>
@@ -19372,7 +19372,7 @@
       </c>
       <c r="U85" s="1"/>
     </row>
-    <row r="86" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E86" s="1"/>
       <c r="F86" s="7">
         <v>83</v>
@@ -19409,7 +19409,7 @@
       </c>
       <c r="U86" s="1"/>
     </row>
-    <row r="87" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E87" s="1"/>
       <c r="F87" s="7">
         <v>84</v>
@@ -19446,7 +19446,7 @@
       </c>
       <c r="U87" s="1"/>
     </row>
-    <row r="88" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E88" s="1"/>
       <c r="F88" s="7">
         <v>85</v>
@@ -19483,7 +19483,7 @@
       </c>
       <c r="U88" s="1"/>
     </row>
-    <row r="89" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E89" s="1"/>
       <c r="F89" s="7">
         <v>86</v>
@@ -19520,7 +19520,7 @@
       </c>
       <c r="U89" s="1"/>
     </row>
-    <row r="90" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E90" s="1"/>
       <c r="F90" s="7">
         <v>87</v>
@@ -19557,7 +19557,7 @@
       </c>
       <c r="U90" s="1"/>
     </row>
-    <row r="91" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E91" s="1"/>
       <c r="F91" s="7">
         <v>88</v>
@@ -19594,7 +19594,7 @@
       </c>
       <c r="U91" s="1"/>
     </row>
-    <row r="92" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E92" s="1"/>
       <c r="F92" s="7">
         <v>89</v>
@@ -19631,7 +19631,7 @@
       </c>
       <c r="U92" s="1"/>
     </row>
-    <row r="93" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E93" s="1"/>
       <c r="F93" s="7">
         <v>90</v>
@@ -19668,7 +19668,7 @@
       </c>
       <c r="U93" s="1"/>
     </row>
-    <row r="94" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E94" s="1"/>
       <c r="F94" s="7">
         <v>91</v>
@@ -19705,7 +19705,7 @@
       </c>
       <c r="U94" s="1"/>
     </row>
-    <row r="95" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E95" s="1"/>
       <c r="F95" s="7">
         <v>92</v>
@@ -19742,7 +19742,7 @@
       </c>
       <c r="U95" s="1"/>
     </row>
-    <row r="96" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E96" s="1"/>
       <c r="F96" s="7">
         <v>93</v>
@@ -19779,7 +19779,7 @@
       </c>
       <c r="U96" s="1"/>
     </row>
-    <row r="97" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E97" s="1"/>
       <c r="F97" s="7">
         <v>94</v>
@@ -19816,7 +19816,7 @@
       </c>
       <c r="U97" s="1"/>
     </row>
-    <row r="98" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E98" s="1"/>
       <c r="F98" s="7">
         <v>95</v>
@@ -19853,7 +19853,7 @@
       </c>
       <c r="U98" s="1"/>
     </row>
-    <row r="99" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E99" s="1"/>
       <c r="F99" s="7">
         <v>96</v>
@@ -19890,7 +19890,7 @@
       </c>
       <c r="U99" s="1"/>
     </row>
-    <row r="100" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E100" s="1"/>
       <c r="F100" s="7">
         <v>97</v>
@@ -19927,7 +19927,7 @@
       </c>
       <c r="U100" s="1"/>
     </row>
-    <row r="101" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E101" s="1"/>
       <c r="F101" s="7">
         <v>98</v>
@@ -19964,7 +19964,7 @@
       </c>
       <c r="U101" s="1"/>
     </row>
-    <row r="102" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E102" s="1"/>
       <c r="F102" s="7">
         <v>99</v>
@@ -20001,7 +20001,7 @@
       </c>
       <c r="U102" s="1"/>
     </row>
-    <row r="103" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E103" s="1"/>
       <c r="F103" s="7">
         <v>100</v>
@@ -20061,44 +20061,44 @@
       <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="G1" s="39" t="s">
+      <c r="B1" s="46"/>
+      <c r="G1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="R1" s="39" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="R1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
       <c r="W1" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
@@ -20163,7 +20163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>4</v>
       </c>
@@ -20175,25 +20175,25 @@
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
       <c r="Q3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="37" t="s">
+      <c r="R3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
       <c r="W3" s="7">
         <v>1</v>
       </c>
@@ -20207,7 +20207,7 @@
         <v>651456</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>8</v>
       </c>
@@ -20271,7 +20271,7 @@
         <v>647313</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>16</v>
       </c>
@@ -20323,7 +20323,7 @@
         <v>10164</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>32</v>
       </c>
@@ -20375,7 +20375,7 @@
         <v>10182</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>64</v>
       </c>
@@ -20427,7 +20427,7 @@
         <v>10195</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>128</v>
       </c>
@@ -20479,7 +20479,7 @@
         <v>10186</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>256</v>
       </c>
@@ -20531,7 +20531,7 @@
         <v>10194</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>512</v>
       </c>
@@ -20583,7 +20583,7 @@
         <v>10190</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="7">
@@ -20629,7 +20629,7 @@
         <v>10228</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E12" s="1"/>
       <c r="F12" s="7">
         <v>9</v>
@@ -20674,11 +20674,11 @@
         <v>10209</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="39"/>
+      <c r="B13" s="46"/>
       <c r="E13" s="1"/>
       <c r="F13" s="7">
         <v>10</v>
@@ -20723,7 +20723,7 @@
         <v>10157</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
@@ -20774,7 +20774,7 @@
         <v>10198</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>128</v>
       </c>
@@ -20826,7 +20826,7 @@
         <v>10175</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>256</v>
       </c>
@@ -20878,7 +20878,7 @@
         <v>10157</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>512</v>
       </c>
@@ -20930,7 +20930,7 @@
         <v>10174</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>1024</v>
       </c>
@@ -20982,7 +20982,7 @@
         <v>10203</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E19" s="1"/>
       <c r="F19" s="7">
         <v>16</v>
@@ -21027,7 +21027,7 @@
         <v>10149</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>24</v>
       </c>
@@ -21078,7 +21078,7 @@
         <v>10165</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E21" s="1"/>
       <c r="F21" s="7">
         <v>18</v>
@@ -21123,12 +21123,12 @@
         <v>10186</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="39" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
       <c r="E22" s="1"/>
       <c r="F22" s="7">
         <v>19</v>
@@ -21173,7 +21173,7 @@
         <v>10166</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>1</v>
       </c>
@@ -21227,15 +21227,15 @@
         <v>10165</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>4</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B24" s="38">
         <f>'Seq. Results'!B3/'Manual Threading'!B3</f>
         <v>4.515722153135548</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="39">
         <f>B24/B20</f>
         <v>1.128930538283887</v>
       </c>
@@ -21283,15 +21283,15 @@
         <v>10196</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>8</v>
       </c>
-      <c r="B25" s="41">
+      <c r="B25" s="38">
         <f>'Seq. Results'!B4/'Manual Threading'!B4</f>
         <v>4.6029182646212847</v>
       </c>
-      <c r="C25" s="43">
+      <c r="C25" s="40">
         <f>B25/B20</f>
         <v>1.1507295661553212</v>
       </c>
@@ -21339,15 +21339,15 @@
         <v>10210</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>16</v>
       </c>
-      <c r="B26" s="41">
+      <c r="B26" s="38">
         <f>'Seq. Results'!B5/'Manual Threading'!B5</f>
         <v>4.7106701356281846</v>
       </c>
-      <c r="C26" s="43">
+      <c r="C26" s="40">
         <f>B26/B20</f>
         <v>1.1776675339070461</v>
       </c>
@@ -21395,15 +21395,15 @@
         <v>10162</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>32</v>
       </c>
-      <c r="B27" s="41">
+      <c r="B27" s="38">
         <f>'Seq. Results'!B6/'Manual Threading'!B6</f>
         <v>4.8492850742198153</v>
       </c>
-      <c r="C27" s="43">
+      <c r="C27" s="40">
         <f>B27/B20</f>
         <v>1.2123212685549538</v>
       </c>
@@ -21451,15 +21451,15 @@
         <v>10211</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>64</v>
       </c>
-      <c r="B28" s="41">
+      <c r="B28" s="38">
         <f>'Seq. Results'!B7/'Manual Threading'!B7</f>
         <v>4.8671166527261764</v>
       </c>
-      <c r="C28" s="43">
+      <c r="C28" s="40">
         <f>B28/B20</f>
         <v>1.2167791631815441</v>
       </c>
@@ -21507,15 +21507,15 @@
         <v>10180</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>128</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="38">
         <f>'Seq. Results'!B8/'Manual Threading'!B8</f>
         <v>4.8120552081086911</v>
       </c>
-      <c r="C29" s="43">
+      <c r="C29" s="40">
         <f>B29/B20</f>
         <v>1.2030138020271728</v>
       </c>
@@ -21557,15 +21557,15 @@
       </c>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>256</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="38">
         <f>'Seq. Results'!B9/'Manual Threading'!B9</f>
         <v>4.7611160133111214</v>
       </c>
-      <c r="C30" s="43">
+      <c r="C30" s="40">
         <f>B30/B20</f>
         <v>1.1902790033277804</v>
       </c>
@@ -21607,15 +21607,15 @@
       </c>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>512</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31" s="38">
         <f>'Seq. Results'!B10/'Manual Threading'!B10</f>
         <v>4.6812327506899729</v>
       </c>
-      <c r="C31" s="43">
+      <c r="C31" s="40">
         <f>B31/B20</f>
         <v>1.1703081876724932</v>
       </c>
@@ -21657,7 +21657,7 @@
       </c>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E32" s="1"/>
       <c r="F32" s="7">
         <v>29</v>
@@ -21696,12 +21696,12 @@
       </c>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A33" s="39" t="s">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
       <c r="E33" s="1"/>
       <c r="F33" s="7">
         <v>30</v>
@@ -21740,7 +21740,7 @@
       </c>
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>0</v>
       </c>
@@ -21788,15 +21788,15 @@
       </c>
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>128</v>
       </c>
-      <c r="B35" s="44">
+      <c r="B35" s="41">
         <f>'Seq. Results'!B15/'Manual Threading'!B15</f>
         <v>4.4314214463840402</v>
       </c>
-      <c r="C35" s="42">
+      <c r="C35" s="39">
         <f>B35/B20</f>
         <v>1.1078553615960101</v>
       </c>
@@ -21838,15 +21838,15 @@
       </c>
       <c r="U35" s="1"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>256</v>
       </c>
-      <c r="B36" s="44">
+      <c r="B36" s="41">
         <f>'Seq. Results'!B16/'Manual Threading'!B16</f>
         <v>4.6639260497956148</v>
       </c>
-      <c r="C36" s="43">
+      <c r="C36" s="40">
         <f>B36/B20</f>
         <v>1.1659815124489037</v>
       </c>
@@ -21888,15 +21888,15 @@
       </c>
       <c r="U36" s="1"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>512</v>
       </c>
-      <c r="B37" s="44">
+      <c r="B37" s="41">
         <f>'Seq. Results'!B17/'Manual Threading'!B17</f>
         <v>4.6031335234316888</v>
       </c>
-      <c r="C37" s="43">
+      <c r="C37" s="40">
         <f>B37/B20</f>
         <v>1.1507833808579222</v>
       </c>
@@ -21938,15 +21938,15 @@
       </c>
       <c r="U37" s="1"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>1024</v>
       </c>
-      <c r="B38" s="44">
+      <c r="B38" s="41">
         <f>'Seq. Results'!B18/'Manual Threading'!B18</f>
         <v>4.6958971480606344</v>
       </c>
-      <c r="C38" s="43">
+      <c r="C38" s="40">
         <f>B38/B20</f>
         <v>1.1739742870151586</v>
       </c>
@@ -21988,7 +21988,7 @@
       </c>
       <c r="U38" s="1"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E39" s="1"/>
       <c r="F39" s="7">
         <v>36</v>
@@ -22027,7 +22027,7 @@
       </c>
       <c r="U39" s="1"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E40" s="1"/>
       <c r="F40" s="7">
         <v>37</v>
@@ -22066,7 +22066,7 @@
       </c>
       <c r="U40" s="1"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E41" s="1"/>
       <c r="F41" s="7">
         <v>38</v>
@@ -22105,7 +22105,7 @@
       </c>
       <c r="U41" s="1"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E42" s="1"/>
       <c r="F42" s="7">
         <v>39</v>
@@ -22144,7 +22144,7 @@
       </c>
       <c r="U42" s="1"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E43" s="1"/>
       <c r="F43" s="7">
         <v>40</v>
@@ -22183,7 +22183,7 @@
       </c>
       <c r="U43" s="1"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E44" s="1"/>
       <c r="F44" s="7">
         <v>41</v>
@@ -22222,7 +22222,7 @@
       </c>
       <c r="U44" s="1"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E45" s="1"/>
       <c r="F45" s="7">
         <v>42</v>
@@ -22261,7 +22261,7 @@
       </c>
       <c r="U45" s="1"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E46" s="1"/>
       <c r="F46" s="7">
         <v>43</v>
@@ -22300,7 +22300,7 @@
       </c>
       <c r="U46" s="1"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E47" s="1"/>
       <c r="F47" s="7">
         <v>44</v>
@@ -22339,7 +22339,7 @@
       </c>
       <c r="U47" s="1"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E48" s="1"/>
       <c r="F48" s="7">
         <v>45</v>
@@ -22378,7 +22378,7 @@
       </c>
       <c r="U48" s="1"/>
     </row>
-    <row r="49" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E49" s="1"/>
       <c r="F49" s="7">
         <v>46</v>
@@ -22417,7 +22417,7 @@
       </c>
       <c r="U49" s="1"/>
     </row>
-    <row r="50" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E50" s="1"/>
       <c r="F50" s="7">
         <v>47</v>
@@ -22456,7 +22456,7 @@
       </c>
       <c r="U50" s="1"/>
     </row>
-    <row r="51" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E51" s="1"/>
       <c r="F51" s="7">
         <v>48</v>
@@ -22495,7 +22495,7 @@
       </c>
       <c r="U51" s="1"/>
     </row>
-    <row r="52" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E52" s="1"/>
       <c r="F52" s="7">
         <v>49</v>
@@ -22534,7 +22534,7 @@
       </c>
       <c r="U52" s="1"/>
     </row>
-    <row r="53" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E53" s="1"/>
       <c r="F53" s="7">
         <v>50</v>
@@ -22573,7 +22573,7 @@
       </c>
       <c r="U53" s="1"/>
     </row>
-    <row r="54" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E54" s="1"/>
       <c r="F54" s="7">
         <v>51</v>
@@ -22610,7 +22610,7 @@
       </c>
       <c r="U54" s="1"/>
     </row>
-    <row r="55" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E55" s="1"/>
       <c r="F55" s="7">
         <v>52</v>
@@ -22647,7 +22647,7 @@
       </c>
       <c r="U55" s="1"/>
     </row>
-    <row r="56" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E56" s="1"/>
       <c r="F56" s="7">
         <v>53</v>
@@ -22684,7 +22684,7 @@
       </c>
       <c r="U56" s="1"/>
     </row>
-    <row r="57" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E57" s="1"/>
       <c r="F57" s="7">
         <v>54</v>
@@ -22721,7 +22721,7 @@
       </c>
       <c r="U57" s="1"/>
     </row>
-    <row r="58" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E58" s="1"/>
       <c r="F58" s="7">
         <v>55</v>
@@ -22758,7 +22758,7 @@
       </c>
       <c r="U58" s="1"/>
     </row>
-    <row r="59" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E59" s="1"/>
       <c r="F59" s="7">
         <v>56</v>
@@ -22795,7 +22795,7 @@
       </c>
       <c r="U59" s="1"/>
     </row>
-    <row r="60" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E60" s="1"/>
       <c r="F60" s="7">
         <v>57</v>
@@ -22832,7 +22832,7 @@
       </c>
       <c r="U60" s="1"/>
     </row>
-    <row r="61" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E61" s="1"/>
       <c r="F61" s="7">
         <v>58</v>
@@ -22869,7 +22869,7 @@
       </c>
       <c r="U61" s="1"/>
     </row>
-    <row r="62" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E62" s="1"/>
       <c r="F62" s="7">
         <v>59</v>
@@ -22906,7 +22906,7 @@
       </c>
       <c r="U62" s="1"/>
     </row>
-    <row r="63" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E63" s="1"/>
       <c r="F63" s="7">
         <v>60</v>
@@ -22943,7 +22943,7 @@
       </c>
       <c r="U63" s="1"/>
     </row>
-    <row r="64" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E64" s="1"/>
       <c r="F64" s="7">
         <v>61</v>
@@ -22980,7 +22980,7 @@
       </c>
       <c r="U64" s="1"/>
     </row>
-    <row r="65" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E65" s="1"/>
       <c r="F65" s="7">
         <v>62</v>
@@ -23017,7 +23017,7 @@
       </c>
       <c r="U65" s="1"/>
     </row>
-    <row r="66" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E66" s="1"/>
       <c r="F66" s="7">
         <v>63</v>
@@ -23054,7 +23054,7 @@
       </c>
       <c r="U66" s="1"/>
     </row>
-    <row r="67" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E67" s="1"/>
       <c r="F67" s="7">
         <v>64</v>
@@ -23091,7 +23091,7 @@
       </c>
       <c r="U67" s="1"/>
     </row>
-    <row r="68" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E68" s="1"/>
       <c r="F68" s="7">
         <v>65</v>
@@ -23128,7 +23128,7 @@
       </c>
       <c r="U68" s="1"/>
     </row>
-    <row r="69" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E69" s="1"/>
       <c r="F69" s="7">
         <v>66</v>
@@ -23165,7 +23165,7 @@
       </c>
       <c r="U69" s="1"/>
     </row>
-    <row r="70" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E70" s="1"/>
       <c r="F70" s="7">
         <v>67</v>
@@ -23202,7 +23202,7 @@
       </c>
       <c r="U70" s="1"/>
     </row>
-    <row r="71" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E71" s="1"/>
       <c r="F71" s="7">
         <v>68</v>
@@ -23239,7 +23239,7 @@
       </c>
       <c r="U71" s="1"/>
     </row>
-    <row r="72" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E72" s="1"/>
       <c r="F72" s="7">
         <v>69</v>
@@ -23276,7 +23276,7 @@
       </c>
       <c r="U72" s="1"/>
     </row>
-    <row r="73" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E73" s="1"/>
       <c r="F73" s="7">
         <v>70</v>
@@ -23313,7 +23313,7 @@
       </c>
       <c r="U73" s="1"/>
     </row>
-    <row r="74" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E74" s="1"/>
       <c r="F74" s="7">
         <v>71</v>
@@ -23350,7 +23350,7 @@
       </c>
       <c r="U74" s="1"/>
     </row>
-    <row r="75" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E75" s="1"/>
       <c r="F75" s="7">
         <v>72</v>
@@ -23387,7 +23387,7 @@
       </c>
       <c r="U75" s="1"/>
     </row>
-    <row r="76" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E76" s="1"/>
       <c r="F76" s="7">
         <v>73</v>
@@ -23424,7 +23424,7 @@
       </c>
       <c r="U76" s="1"/>
     </row>
-    <row r="77" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E77" s="1"/>
       <c r="F77" s="7">
         <v>74</v>
@@ -23461,7 +23461,7 @@
       </c>
       <c r="U77" s="1"/>
     </row>
-    <row r="78" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E78" s="1"/>
       <c r="F78" s="7">
         <v>75</v>
@@ -23498,7 +23498,7 @@
       </c>
       <c r="U78" s="1"/>
     </row>
-    <row r="79" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E79" s="1"/>
       <c r="F79" s="7">
         <v>76</v>
@@ -23535,7 +23535,7 @@
       </c>
       <c r="U79" s="1"/>
     </row>
-    <row r="80" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E80" s="1"/>
       <c r="F80" s="7">
         <v>77</v>
@@ -23572,7 +23572,7 @@
       </c>
       <c r="U80" s="1"/>
     </row>
-    <row r="81" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E81" s="1"/>
       <c r="F81" s="7">
         <v>78</v>
@@ -23609,7 +23609,7 @@
       </c>
       <c r="U81" s="1"/>
     </row>
-    <row r="82" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E82" s="1"/>
       <c r="F82" s="7">
         <v>79</v>
@@ -23646,7 +23646,7 @@
       </c>
       <c r="U82" s="1"/>
     </row>
-    <row r="83" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E83" s="1"/>
       <c r="F83" s="7">
         <v>80</v>
@@ -23683,7 +23683,7 @@
       </c>
       <c r="U83" s="1"/>
     </row>
-    <row r="84" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E84" s="1"/>
       <c r="F84" s="7">
         <v>81</v>
@@ -23720,7 +23720,7 @@
       </c>
       <c r="U84" s="1"/>
     </row>
-    <row r="85" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E85" s="1"/>
       <c r="F85" s="7">
         <v>82</v>
@@ -23757,7 +23757,7 @@
       </c>
       <c r="U85" s="1"/>
     </row>
-    <row r="86" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E86" s="1"/>
       <c r="F86" s="7">
         <v>83</v>
@@ -23794,7 +23794,7 @@
       </c>
       <c r="U86" s="1"/>
     </row>
-    <row r="87" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E87" s="1"/>
       <c r="F87" s="7">
         <v>84</v>
@@ -23831,7 +23831,7 @@
       </c>
       <c r="U87" s="1"/>
     </row>
-    <row r="88" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E88" s="1"/>
       <c r="F88" s="7">
         <v>85</v>
@@ -23868,7 +23868,7 @@
       </c>
       <c r="U88" s="1"/>
     </row>
-    <row r="89" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E89" s="1"/>
       <c r="F89" s="7">
         <v>86</v>
@@ -23905,7 +23905,7 @@
       </c>
       <c r="U89" s="1"/>
     </row>
-    <row r="90" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E90" s="1"/>
       <c r="F90" s="7">
         <v>87</v>
@@ -23942,7 +23942,7 @@
       </c>
       <c r="U90" s="1"/>
     </row>
-    <row r="91" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E91" s="1"/>
       <c r="F91" s="7">
         <v>88</v>
@@ -23979,7 +23979,7 @@
       </c>
       <c r="U91" s="1"/>
     </row>
-    <row r="92" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E92" s="1"/>
       <c r="F92" s="7">
         <v>89</v>
@@ -24016,7 +24016,7 @@
       </c>
       <c r="U92" s="1"/>
     </row>
-    <row r="93" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E93" s="1"/>
       <c r="F93" s="7">
         <v>90</v>
@@ -24053,7 +24053,7 @@
       </c>
       <c r="U93" s="1"/>
     </row>
-    <row r="94" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E94" s="1"/>
       <c r="F94" s="7">
         <v>91</v>
@@ -24090,7 +24090,7 @@
       </c>
       <c r="U94" s="1"/>
     </row>
-    <row r="95" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E95" s="1"/>
       <c r="F95" s="7">
         <v>92</v>
@@ -24127,7 +24127,7 @@
       </c>
       <c r="U95" s="1"/>
     </row>
-    <row r="96" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E96" s="1"/>
       <c r="F96" s="7">
         <v>93</v>
@@ -24164,7 +24164,7 @@
       </c>
       <c r="U96" s="1"/>
     </row>
-    <row r="97" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E97" s="1"/>
       <c r="F97" s="7">
         <v>94</v>
@@ -24201,7 +24201,7 @@
       </c>
       <c r="U97" s="1"/>
     </row>
-    <row r="98" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E98" s="1"/>
       <c r="F98" s="7">
         <v>95</v>
@@ -24238,7 +24238,7 @@
       </c>
       <c r="U98" s="1"/>
     </row>
-    <row r="99" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E99" s="1"/>
       <c r="F99" s="7">
         <v>96</v>
@@ -24275,7 +24275,7 @@
       </c>
       <c r="U99" s="1"/>
     </row>
-    <row r="100" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E100" s="1"/>
       <c r="F100" s="7">
         <v>97</v>
@@ -24312,7 +24312,7 @@
       </c>
       <c r="U100" s="1"/>
     </row>
-    <row r="101" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E101" s="1"/>
       <c r="F101" s="7">
         <v>98</v>
@@ -24349,7 +24349,7 @@
       </c>
       <c r="U101" s="1"/>
     </row>
-    <row r="102" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E102" s="1"/>
       <c r="F102" s="7">
         <v>99</v>
@@ -24386,7 +24386,7 @@
       </c>
       <c r="U102" s="1"/>
     </row>
-    <row r="103" spans="5:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E103" s="1"/>
       <c r="F103" s="7">
         <v>100</v>
@@ -24442,32 +24442,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
       <c r="D2" s="31"/>
@@ -24520,7 +24520,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>35</v>
       </c>
@@ -24550,7 +24550,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
         <v>36</v>
       </c>
@@ -24695,7 +24695,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B5" s="32" t="s">
         <v>37</v>
       </c>
@@ -24820,7 +24820,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B6" s="32" t="s">
         <v>38</v>
       </c>
@@ -24945,7 +24945,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B7" s="32" t="s">
         <v>39</v>
       </c>
@@ -25070,7 +25070,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="K8" s="1">
@@ -25190,7 +25190,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="K9" s="1">
         <v>5</v>
       </c>
@@ -25308,12 +25308,12 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="B10" s="39" t="s">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="B10" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="34"/>
       <c r="K10" s="1">
         <v>6</v>
@@ -25432,7 +25432,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
@@ -25560,14 +25560,14 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="38"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="34"/>
       <c r="K12" s="1">
         <v>8</v>
@@ -25686,7 +25686,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B13" s="33" t="s">
         <v>37</v>
       </c>
@@ -25816,7 +25816,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B14" s="33" t="s">
         <v>38</v>
       </c>
@@ -25946,7 +25946,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B15" s="33" t="s">
         <v>39</v>
       </c>
@@ -26075,7 +26075,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="K16" s="1">
         <v>12</v>
       </c>
@@ -26193,7 +26193,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="K17" s="1">
         <v>13</v>
       </c>
@@ -26311,7 +26311,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="K18" s="1">
         <v>14</v>
       </c>
@@ -26429,8 +26429,8 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B19" s="40" t="s">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B19" s="37" t="s">
         <v>35</v>
       </c>
       <c r="K19" s="1">
@@ -26550,7 +26550,7 @@
         <v>2593</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="s">
         <v>37</v>
       </c>
@@ -26671,7 +26671,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="33" t="s">
         <v>38</v>
       </c>
@@ -26792,7 +26792,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="s">
         <v>39</v>
       </c>
@@ -26913,7 +26913,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="K23" s="1">
         <v>19</v>
       </c>
@@ -27031,7 +27031,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="K24" s="1">
         <v>20</v>
       </c>
@@ -27149,7 +27149,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="K25" s="1">
         <v>21</v>
       </c>
@@ -27267,7 +27267,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="K26" s="1">
         <v>22</v>
       </c>
@@ -27385,7 +27385,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="K27" s="1">
         <v>23</v>
       </c>
@@ -27503,7 +27503,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="K28" s="1">
         <v>24</v>
       </c>
@@ -27621,7 +27621,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="K29" s="1">
         <v>25</v>
       </c>
@@ -27739,7 +27739,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="K30" s="1">
         <v>26</v>
       </c>
@@ -27857,7 +27857,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="K31" s="1">
         <v>27</v>
       </c>
@@ -27975,7 +27975,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="K32" s="1">
         <v>28</v>
       </c>
@@ -28093,7 +28093,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="33" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K33" s="1">
         <v>29</v>
       </c>
@@ -28211,7 +28211,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="34" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K34" s="1">
         <v>30</v>
       </c>
@@ -28329,7 +28329,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="35" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K35" s="1">
         <v>31</v>
       </c>
@@ -28447,7 +28447,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="36" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K36" s="1">
         <v>32</v>
       </c>
@@ -28565,7 +28565,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="37" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K37" s="1">
         <v>33</v>
       </c>
@@ -28683,7 +28683,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="38" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K38" s="1">
         <v>34</v>
       </c>
@@ -28801,7 +28801,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="39" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K39" s="1">
         <v>35</v>
       </c>
@@ -28919,7 +28919,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="40" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K40" s="1">
         <v>36</v>
       </c>
@@ -29037,7 +29037,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="41" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K41" s="1">
         <v>37</v>
       </c>
@@ -29155,7 +29155,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="42" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K42" s="1">
         <v>38</v>
       </c>
@@ -29273,7 +29273,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="43" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K43" s="1">
         <v>39</v>
       </c>
@@ -29391,7 +29391,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="44" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K44" s="1">
         <v>40</v>
       </c>
@@ -29509,7 +29509,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="45" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K45" s="1">
         <v>41</v>
       </c>
@@ -29627,7 +29627,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="46" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K46" s="1">
         <v>42</v>
       </c>
@@ -29745,7 +29745,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="47" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K47" s="1">
         <v>43</v>
       </c>
@@ -29863,7 +29863,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="48" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K48" s="1">
         <v>44</v>
       </c>
@@ -29981,7 +29981,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="49" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K49" s="1">
         <v>45</v>
       </c>
@@ -30099,7 +30099,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="50" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K50" s="1">
         <v>46</v>
       </c>
@@ -30217,7 +30217,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="51" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K51" s="1">
         <v>47</v>
       </c>
@@ -30335,7 +30335,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="52" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K52" s="1">
         <v>48</v>
       </c>
@@ -30453,7 +30453,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="53" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K53" s="1">
         <v>49</v>
       </c>
@@ -30571,7 +30571,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="54" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K54" s="1">
         <v>50</v>
       </c>
@@ -30689,7 +30689,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="55" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="11:54" x14ac:dyDescent="0.25">
       <c r="M55" t="s">
         <v>22</v>
       </c>
@@ -30717,7 +30717,7 @@
         <v>11957.8</v>
       </c>
     </row>
-    <row r="56" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K56" t="s">
         <v>19</v>
       </c>
@@ -30734,7 +30734,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K57" t="s">
         <v>15</v>
       </c>
@@ -30757,7 +30757,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K58">
         <v>1</v>
       </c>
@@ -30798,7 +30798,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K59">
         <v>2</v>
       </c>
@@ -30836,7 +30836,7 @@
         <v>3051</v>
       </c>
     </row>
-    <row r="60" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K60">
         <v>3</v>
       </c>
@@ -30874,7 +30874,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="61" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K61">
         <v>4</v>
       </c>
@@ -30912,7 +30912,7 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="62" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K62">
         <v>5</v>
       </c>
@@ -30950,7 +30950,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="63" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K63">
         <v>6</v>
       </c>
@@ -30988,7 +30988,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="64" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K64">
         <v>7</v>
       </c>
@@ -31026,7 +31026,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="65" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K65">
         <v>8</v>
       </c>
@@ -31064,7 +31064,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="66" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K66">
         <v>9</v>
       </c>
@@ -31102,7 +31102,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="67" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K67">
         <v>10</v>
       </c>
@@ -31140,7 +31140,7 @@
         <v>2802</v>
       </c>
     </row>
-    <row r="68" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K68">
         <v>11</v>
       </c>
@@ -31178,7 +31178,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="69" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K69">
         <v>12</v>
       </c>
@@ -31216,7 +31216,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="70" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K70">
         <v>13</v>
       </c>
@@ -31254,7 +31254,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="71" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K71">
         <v>14</v>
       </c>
@@ -31292,7 +31292,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="72" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K72">
         <v>15</v>
       </c>
@@ -31330,7 +31330,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="73" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K73">
         <v>16</v>
       </c>
@@ -31368,7 +31368,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="74" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K74">
         <v>17</v>
       </c>
@@ -31406,7 +31406,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="75" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K75">
         <v>18</v>
       </c>
@@ -31444,7 +31444,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="76" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K76">
         <v>19</v>
       </c>
@@ -31482,7 +31482,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="77" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K77">
         <v>20</v>
       </c>
@@ -31520,7 +31520,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="78" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K78">
         <v>21</v>
       </c>
@@ -31558,7 +31558,7 @@
         <v>2832</v>
       </c>
     </row>
-    <row r="79" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K79">
         <v>22</v>
       </c>
@@ -31596,7 +31596,7 @@
         <v>2811</v>
       </c>
     </row>
-    <row r="80" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K80">
         <v>23</v>
       </c>
@@ -31634,7 +31634,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="81" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K81">
         <v>24</v>
       </c>
@@ -31672,7 +31672,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="82" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K82">
         <v>25</v>
       </c>
@@ -31710,7 +31710,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="83" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K83">
         <v>26</v>
       </c>
@@ -31748,7 +31748,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="84" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K84">
         <v>27</v>
       </c>
@@ -31786,7 +31786,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="85" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K85">
         <v>28</v>
       </c>
@@ -31824,7 +31824,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="86" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K86">
         <v>29</v>
       </c>
@@ -31862,7 +31862,7 @@
         <v>2781</v>
       </c>
     </row>
-    <row r="87" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K87">
         <v>30</v>
       </c>
@@ -31900,7 +31900,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="88" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K88">
         <v>31</v>
       </c>
@@ -31938,7 +31938,7 @@
         <v>2782</v>
       </c>
     </row>
-    <row r="89" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K89">
         <v>32</v>
       </c>
@@ -31976,7 +31976,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="90" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K90">
         <v>33</v>
       </c>
@@ -32014,7 +32014,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="91" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K91">
         <v>34</v>
       </c>
@@ -32052,7 +32052,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="92" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K92">
         <v>35</v>
       </c>
@@ -32090,7 +32090,7 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="93" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K93">
         <v>36</v>
       </c>
@@ -32128,7 +32128,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="94" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K94">
         <v>37</v>
       </c>
@@ -32166,7 +32166,7 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="95" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K95">
         <v>38</v>
       </c>
@@ -32204,7 +32204,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="96" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K96">
         <v>39</v>
       </c>
@@ -32242,7 +32242,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="97" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K97">
         <v>40</v>
       </c>
@@ -32280,7 +32280,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="98" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K98">
         <v>41</v>
       </c>
@@ -32318,7 +32318,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="99" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K99">
         <v>42</v>
       </c>
@@ -32356,7 +32356,7 @@
         <v>2826</v>
       </c>
     </row>
-    <row r="100" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K100">
         <v>43</v>
       </c>
@@ -32394,7 +32394,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="101" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="101" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K101">
         <v>44</v>
       </c>
@@ -32432,7 +32432,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="102" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="102" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K102">
         <v>45</v>
       </c>
@@ -32470,7 +32470,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="103" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="103" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K103">
         <v>46</v>
       </c>
@@ -32508,7 +32508,7 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="104" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="104" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K104">
         <v>47</v>
       </c>
@@ -32546,7 +32546,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="105" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="105" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K105">
         <v>48</v>
       </c>
@@ -32584,7 +32584,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="106" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="106" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K106">
         <v>49</v>
       </c>
@@ -32622,7 +32622,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="107" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="107" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K107">
         <v>50</v>
       </c>
@@ -32660,7 +32660,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="108" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="108" spans="11:54" x14ac:dyDescent="0.25">
       <c r="M108" t="s">
         <v>22</v>
       </c>
@@ -32693,12 +32693,12 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="109" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="109" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K109" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="110" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K110" t="s">
         <v>15</v>
       </c>
@@ -32721,7 +32721,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="111" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K111">
         <v>1</v>
       </c>
@@ -32735,7 +32735,7 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="112" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="112" spans="11:54" x14ac:dyDescent="0.25">
       <c r="K112">
         <v>2</v>
       </c>
@@ -32764,7 +32764,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="113" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K113">
         <v>3</v>
       </c>
@@ -32790,7 +32790,7 @@
         <v>3512</v>
       </c>
     </row>
-    <row r="114" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="114" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K114">
         <v>4</v>
       </c>
@@ -32816,7 +32816,7 @@
         <v>3277</v>
       </c>
     </row>
-    <row r="115" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="115" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K115">
         <v>5</v>
       </c>
@@ -32842,7 +32842,7 @@
         <v>3343</v>
       </c>
     </row>
-    <row r="116" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="116" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K116">
         <v>6</v>
       </c>
@@ -32868,7 +32868,7 @@
         <v>3334</v>
       </c>
     </row>
-    <row r="117" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="117" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K117">
         <v>7</v>
       </c>
@@ -32894,7 +32894,7 @@
         <v>3365</v>
       </c>
     </row>
-    <row r="118" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="118" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K118">
         <v>8</v>
       </c>
@@ -32920,7 +32920,7 @@
         <v>3279</v>
       </c>
     </row>
-    <row r="119" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="119" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K119">
         <v>9</v>
       </c>
@@ -32946,7 +32946,7 @@
         <v>3323</v>
       </c>
     </row>
-    <row r="120" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="120" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K120">
         <v>10</v>
       </c>
@@ -32972,7 +32972,7 @@
         <v>3319</v>
       </c>
     </row>
-    <row r="121" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="121" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K121">
         <v>11</v>
       </c>
@@ -32998,7 +32998,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="122" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="122" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K122">
         <v>12</v>
       </c>
@@ -33024,7 +33024,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="123" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="123" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K123">
         <v>13</v>
       </c>
@@ -33050,7 +33050,7 @@
         <v>3423</v>
       </c>
     </row>
-    <row r="124" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="124" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K124">
         <v>14</v>
       </c>
@@ -33076,7 +33076,7 @@
         <v>3374</v>
       </c>
     </row>
-    <row r="125" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="125" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K125">
         <v>15</v>
       </c>
@@ -33102,7 +33102,7 @@
         <v>3311</v>
       </c>
     </row>
-    <row r="126" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="126" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K126">
         <v>16</v>
       </c>
@@ -33128,7 +33128,7 @@
         <v>3329</v>
       </c>
     </row>
-    <row r="127" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="127" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K127">
         <v>17</v>
       </c>
@@ -33154,7 +33154,7 @@
         <v>3354</v>
       </c>
     </row>
-    <row r="128" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="128" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K128">
         <v>18</v>
       </c>
@@ -33180,7 +33180,7 @@
         <v>3326</v>
       </c>
     </row>
-    <row r="129" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="129" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K129">
         <v>19</v>
       </c>
@@ -33206,7 +33206,7 @@
         <v>3342</v>
       </c>
     </row>
-    <row r="130" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="130" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K130">
         <v>20</v>
       </c>
@@ -33232,7 +33232,7 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="131" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="131" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K131">
         <v>21</v>
       </c>
@@ -33258,7 +33258,7 @@
         <v>3307</v>
       </c>
     </row>
-    <row r="132" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="132" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K132">
         <v>22</v>
       </c>
@@ -33284,7 +33284,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="133" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="133" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K133">
         <v>23</v>
       </c>
@@ -33310,7 +33310,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="134" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="134" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K134">
         <v>24</v>
       </c>
@@ -33336,7 +33336,7 @@
         <v>3371</v>
       </c>
     </row>
-    <row r="135" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="135" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K135">
         <v>25</v>
       </c>
@@ -33362,7 +33362,7 @@
         <v>3331</v>
       </c>
     </row>
-    <row r="136" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="136" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K136">
         <v>26</v>
       </c>
@@ -33388,7 +33388,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="137" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="137" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K137">
         <v>27</v>
       </c>
@@ -33414,7 +33414,7 @@
         <v>3271</v>
       </c>
     </row>
-    <row r="138" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="138" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K138">
         <v>28</v>
       </c>
@@ -33440,7 +33440,7 @@
         <v>3323</v>
       </c>
     </row>
-    <row r="139" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="139" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K139">
         <v>29</v>
       </c>
@@ -33466,7 +33466,7 @@
         <v>3379</v>
       </c>
     </row>
-    <row r="140" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="140" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K140">
         <v>30</v>
       </c>
@@ -33492,7 +33492,7 @@
         <v>3354</v>
       </c>
     </row>
-    <row r="141" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="141" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K141">
         <v>31</v>
       </c>
@@ -33518,7 +33518,7 @@
         <v>3363</v>
       </c>
     </row>
-    <row r="142" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="142" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K142">
         <v>32</v>
       </c>
@@ -33544,7 +33544,7 @@
         <v>3371</v>
       </c>
     </row>
-    <row r="143" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="143" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K143">
         <v>33</v>
       </c>
@@ -33570,7 +33570,7 @@
         <v>3367</v>
       </c>
     </row>
-    <row r="144" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="144" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K144">
         <v>34</v>
       </c>
@@ -33596,7 +33596,7 @@
         <v>3363</v>
       </c>
     </row>
-    <row r="145" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="145" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K145">
         <v>35</v>
       </c>
@@ -33622,7 +33622,7 @@
         <v>3368</v>
       </c>
     </row>
-    <row r="146" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="146" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K146">
         <v>36</v>
       </c>
@@ -33648,7 +33648,7 @@
         <v>3307</v>
       </c>
     </row>
-    <row r="147" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="147" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K147">
         <v>37</v>
       </c>
@@ -33674,7 +33674,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="148" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="148" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K148">
         <v>38</v>
       </c>
@@ -33700,7 +33700,7 @@
         <v>3313</v>
       </c>
     </row>
-    <row r="149" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="149" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K149">
         <v>39</v>
       </c>
@@ -33726,7 +33726,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="150" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="150" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K150">
         <v>40</v>
       </c>
@@ -33752,7 +33752,7 @@
         <v>3213</v>
       </c>
     </row>
-    <row r="151" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="151" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K151">
         <v>41</v>
       </c>
@@ -33778,7 +33778,7 @@
         <v>3308</v>
       </c>
     </row>
-    <row r="152" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="152" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K152">
         <v>42</v>
       </c>
@@ -33804,7 +33804,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="153" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="153" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K153">
         <v>43</v>
       </c>
@@ -33830,7 +33830,7 @@
         <v>3273</v>
       </c>
     </row>
-    <row r="154" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="154" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K154">
         <v>44</v>
       </c>
@@ -33856,7 +33856,7 @@
         <v>3344</v>
       </c>
     </row>
-    <row r="155" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="155" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K155">
         <v>45</v>
       </c>
@@ -33882,7 +33882,7 @@
         <v>3332</v>
       </c>
     </row>
-    <row r="156" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="156" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K156">
         <v>46</v>
       </c>
@@ -33908,7 +33908,7 @@
         <v>3331</v>
       </c>
     </row>
-    <row r="157" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="157" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K157">
         <v>47</v>
       </c>
@@ -33934,7 +33934,7 @@
         <v>3341</v>
       </c>
     </row>
-    <row r="158" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="158" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K158">
         <v>48</v>
       </c>
@@ -33960,7 +33960,7 @@
         <v>3294</v>
       </c>
     </row>
-    <row r="159" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="159" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K159">
         <v>49</v>
       </c>
@@ -33986,7 +33986,7 @@
         <v>3370</v>
       </c>
     </row>
-    <row r="160" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="160" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K160">
         <v>50</v>
       </c>
@@ -34012,7 +34012,7 @@
         <v>3276</v>
       </c>
     </row>
-    <row r="161" spans="13:44" x14ac:dyDescent="0.3">
+    <row r="161" spans="13:44" x14ac:dyDescent="0.25">
       <c r="M161" t="s">
         <v>22</v>
       </c>
@@ -34033,7 +34033,7 @@
         <v>3338</v>
       </c>
     </row>
-    <row r="162" spans="13:44" x14ac:dyDescent="0.3">
+    <row r="162" spans="13:44" x14ac:dyDescent="0.25">
       <c r="AO162">
         <v>50</v>
       </c>
